--- a/config_ios/fishbowl_daily_task_info_config.xlsx
+++ b/config_ios/fishbowl_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -118,43 +118,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>szg_iocn_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"普通精灵硬币",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"普通精灵硬币",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"普通精灵硬币",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>szg_iocn_jlyb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szg_iocn_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szg_iocn_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"普通精灵硬币",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"普通精灵硬币",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"普通精灵硬币",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -650,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>15</v>
@@ -678,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -687,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
@@ -715,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -734,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
@@ -743,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>20</v>
@@ -774,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -790,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
@@ -802,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2"/>
     </row>
